--- a/docs/CareConnect-MedicationDispense-1.xlsx
+++ b/docs/CareConnect-MedicationDispense-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="450">
   <si>
     <t>Path</t>
   </si>
@@ -482,7 +482,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -632,7 +632,39 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
   </si>
   <si>
-    <t>MedicationDispense.medicationReference</t>
+    <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>…code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRD].role</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>RXD-2-Dispense/Give Code</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -642,30 +674,6 @@
 </t>
   </si>
   <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRD].role</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
     <t>MedicationDispense.subject</t>
   </si>
   <si>
@@ -895,6 +903,12 @@
 </t>
   </si>
   <si>
+    <t>Quantity representation</t>
+  </si>
+  <si>
+    <t>Quantity representation.</t>
+  </si>
+  <si>
     <t>MedicationDispense.quantity.extension.id</t>
   </si>
   <si>
@@ -922,10 +936,6 @@
     <t>MedicationDispense.quantity.extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
@@ -933,6 +943,9 @@
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueString</t>
   </si>
   <si>
     <t>MedicationDispense.quantity.value</t>
@@ -1552,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4048,9 +4061,7 @@
       <c r="A23" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4071,16 +4082,16 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4118,19 +4129,17 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4159,15 +4168,17 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -4185,13 +4196,13 @@
         <v>210</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4241,10 +4252,10 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>51</v>
@@ -4256,21 +4267,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4290,18 +4301,20 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4350,36 +4363,36 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4390,7 +4403,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4402,13 +4415,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4459,28 +4472,28 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4488,7 +4501,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4511,17 +4524,15 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4570,7 +4581,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4582,16 +4593,16 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4599,7 +4610,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4610,7 +4621,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4622,15 +4633,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4679,25 +4692,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4708,18 +4721,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4731,17 +4744,15 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4790,13 +4801,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4819,11 +4830,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4836,19 +4847,19 @@
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>100</v>
@@ -4901,7 +4912,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4919,7 +4930,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4930,38 +4941,40 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -5010,13 +5023,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -5025,10 +5038,10 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5039,7 +5052,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5047,7 +5060,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
@@ -5062,13 +5075,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5119,25 +5132,25 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -5148,7 +5161,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5159,7 +5172,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -5171,17 +5184,15 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5230,36 +5241,36 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5270,7 +5281,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -5282,15 +5293,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5315,13 +5328,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5339,36 +5352,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5391,13 +5404,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5424,13 +5437,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5448,36 +5461,36 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5500,13 +5513,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5557,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>117</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5575,18 +5588,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5597,7 +5610,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5609,13 +5622,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5654,25 +5667,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5684,7 +5697,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5695,11 +5708,9 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5708,7 +5719,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5720,13 +5731,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5765,16 +5776,16 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>124</v>
@@ -5806,9 +5817,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5829,13 +5842,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5886,13 +5899,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5904,7 +5917,7 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5915,18 +5928,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5938,17 +5951,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5985,25 +5996,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -6026,18 +6037,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -6049,16 +6060,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>120</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6066,7 +6077,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>40</v>
@@ -6096,25 +6107,25 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -6126,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6137,7 +6148,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6145,7 +6156,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6160,22 +6171,24 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>40</v>
@@ -6217,10 +6230,10 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6246,7 +6259,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6266,23 +6279,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6318,19 +6327,17 @@
         <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6348,20 +6355,22 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6370,38 +6379,32 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6421,13 +6424,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6445,7 +6448,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6463,18 +6466,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6497,17 +6500,19 @@
         <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6556,7 +6561,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6574,18 +6579,18 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6596,34 +6601,38 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6643,13 +6652,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6667,7 +6676,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6676,7 +6685,7 @@
         <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
@@ -6685,18 +6694,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6719,19 +6728,17 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6780,7 +6787,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6798,18 +6805,18 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6829,19 +6836,21 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6889,7 +6898,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6898,7 +6907,7 @@
         <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
@@ -6907,18 +6916,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6941,16 +6950,20 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>342</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7016,18 +7029,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7050,13 +7063,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7107,7 +7120,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7122,21 +7135,21 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7156,16 +7169,16 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7216,7 +7229,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7234,18 +7247,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7256,7 +7269,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7268,13 +7281,13 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7325,13 +7338,13 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7340,21 +7353,21 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7365,7 +7378,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7377,13 +7390,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7434,13 +7447,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7449,21 +7462,21 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7474,7 +7487,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7486,13 +7499,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>114</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7543,13 +7556,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>117</v>
+        <v>362</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7561,7 +7574,7 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>118</v>
+        <v>366</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7572,11 +7585,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7595,17 +7608,15 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>98</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7642,19 +7653,19 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>124</v>
+        <v>367</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7669,21 +7680,21 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>118</v>
+        <v>372</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7703,16 +7714,16 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>116</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7763,7 +7774,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>376</v>
+        <v>117</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7781,29 +7792,29 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7812,18 +7823,20 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>342</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7860,25 +7873,25 @@
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>381</v>
+        <v>124</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7890,18 +7903,18 @@
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7909,7 +7922,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>51</v>
@@ -7921,16 +7934,16 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7981,10 +7994,10 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>51</v>
@@ -7999,7 +8012,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -8010,7 +8023,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8021,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -8030,20 +8043,18 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8092,13 +8103,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -8110,18 +8121,18 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8129,7 +8140,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>51</v>
@@ -8144,13 +8155,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8201,10 +8212,10 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>51</v>
@@ -8213,24 +8224,24 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8241,7 +8252,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8253,15 +8264,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>114</v>
+        <v>393</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8310,13 +8323,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8328,7 +8341,7 @@
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8339,18 +8352,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8362,17 +8375,15 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8421,25 +8432,25 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8450,40 +8461,38 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8532,13 +8541,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8550,7 +8559,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8561,18 +8570,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8584,15 +8593,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>402</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8641,13 +8652,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>401</v>
+        <v>124</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8659,7 +8670,7 @@
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>405</v>
+        <v>118</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8670,38 +8681,40 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8726,13 +8739,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>409</v>
+        <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>411</v>
+        <v>40</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>40</v>
@@ -8750,13 +8763,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8768,18 +8781,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>412</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8787,10 +8800,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8802,13 +8815,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8835,49 +8848,49 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8888,7 +8901,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8899,7 +8912,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8911,13 +8924,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8944,13 +8957,13 @@
         <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>40</v>
+        <v>413</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>40</v>
@@ -8968,13 +8981,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8986,22 +8999,22 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9020,13 +9033,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>426</v>
+        <v>136</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9053,13 +9066,13 @@
         <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>40</v>
+        <v>413</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>40</v>
@@ -9077,7 +9090,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9095,7 +9108,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -9106,7 +9119,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9117,7 +9130,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -9129,13 +9142,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9186,13 +9199,13 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -9201,10 +9214,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9215,18 +9228,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9238,13 +9251,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9295,13 +9308,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9310,10 +9323,10 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>438</v>
+        <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9324,7 +9337,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9335,7 +9348,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -9347,17 +9360,15 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9406,35 +9417,255 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
+      <c r="L72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
+      <c r="K73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM71">
+  <autoFilter ref="A1:AM73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9444,7 +9675,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
